--- a/Dokumentation/Verteilung.xlsx
+++ b/Dokumentation/Verteilung.xlsx
@@ -15,9 +15,80 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+  <si>
+    <t>Kunden</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Webserver</t>
+  </si>
+  <si>
+    <t>SQL-Server</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>Personen</t>
+  </si>
+  <si>
+    <t>Fahrer</t>
+  </si>
+  <si>
+    <t>Auftraege</t>
+  </si>
+  <si>
+    <t>Bereitschaftszeiten</t>
+  </si>
+  <si>
+    <t>Pakete</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Adressen</t>
+  </si>
+  <si>
+    <t>Orte</t>
+  </si>
+  <si>
+    <t>Person_Adresse</t>
+  </si>
+  <si>
+    <t>Auftrag_Adresse</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>MSSQL</t>
+  </si>
+  <si>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>MSSQL Mobile</t>
+  </si>
+  <si>
+    <t>Replikation</t>
+  </si>
+  <si>
+    <t>Integration Services</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +96,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8D8D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8DB4E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -42,12 +153,132 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -342,13 +573,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="6" width="30.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="7"/>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="8"/>
+      <c r="C3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="C15" s="13"/>
+      <c r="D15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
